--- a/database/industries/khodro/khedizel/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/khodro/khedizel/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BA119F-8A76-4D7D-B5F3-37E288D03BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47B37D-097A-48D3-A209-7AD10E7B301D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-10 (4)</t>
-  </si>
-  <si>
     <t>1400-10-30 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (8)</t>
+    <t>1402-02-23 (10)</t>
   </si>
   <si>
     <t>1401-07-07 (2)</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-23 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,18 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>3073168</v>
+        <v>5333176</v>
       </c>
       <c r="E11" s="13">
-        <v>5333176</v>
+        <v>9013378</v>
       </c>
       <c r="F11" s="13">
-        <v>9013378</v>
+        <v>1704944</v>
       </c>
       <c r="G11" s="13">
-        <v>1704944</v>
+        <v>7544294</v>
       </c>
       <c r="H11" s="13">
-        <v>7544294</v>
+        <v>15690709</v>
       </c>
       <c r="I11" s="13">
-        <v>15690709</v>
+        <v>27693494</v>
       </c>
       <c r="J11" s="13">
-        <v>27693494</v>
+        <v>8812065</v>
       </c>
       <c r="K11" s="13">
-        <v>8812065</v>
+        <v>28821889</v>
       </c>
       <c r="L11" s="13">
-        <v>28821889</v>
+        <v>53766550</v>
       </c>
       <c r="M11" s="13">
-        <v>53766550</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>91661180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1106632</v>
+        <v>-2239069</v>
       </c>
       <c r="E12" s="11">
-        <v>-2239069</v>
+        <v>-3334760</v>
       </c>
       <c r="F12" s="11">
-        <v>-3334760</v>
+        <v>-767416</v>
       </c>
       <c r="G12" s="11">
-        <v>-767416</v>
+        <v>-3577517</v>
       </c>
       <c r="H12" s="11">
-        <v>-3577517</v>
+        <v>-7295841</v>
       </c>
       <c r="I12" s="11">
-        <v>-7295841</v>
+        <v>-13034835</v>
       </c>
       <c r="J12" s="11">
-        <v>-13034835</v>
+        <v>-5298903</v>
       </c>
       <c r="K12" s="11">
-        <v>-5298903</v>
+        <v>-18005901</v>
       </c>
       <c r="L12" s="11">
-        <v>-18005901</v>
+        <v>-34737999</v>
       </c>
       <c r="M12" s="11">
-        <v>-34737999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-55297002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>1966536</v>
+        <v>3094107</v>
       </c>
       <c r="E13" s="15">
-        <v>3094107</v>
+        <v>5678618</v>
       </c>
       <c r="F13" s="15">
-        <v>5678618</v>
+        <v>937528</v>
       </c>
       <c r="G13" s="15">
-        <v>937528</v>
+        <v>3966777</v>
       </c>
       <c r="H13" s="15">
-        <v>3966777</v>
+        <v>8394868</v>
       </c>
       <c r="I13" s="15">
-        <v>8394868</v>
+        <v>14658659</v>
       </c>
       <c r="J13" s="15">
-        <v>14658659</v>
+        <v>3513162</v>
       </c>
       <c r="K13" s="15">
-        <v>3513162</v>
+        <v>10815988</v>
       </c>
       <c r="L13" s="15">
-        <v>10815988</v>
+        <v>19028551</v>
       </c>
       <c r="M13" s="15">
-        <v>19028551</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>36364178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-351519</v>
+        <v>-614594</v>
       </c>
       <c r="E14" s="11">
-        <v>-614594</v>
+        <v>-897281</v>
       </c>
       <c r="F14" s="11">
-        <v>-897281</v>
+        <v>-286451</v>
       </c>
       <c r="G14" s="11">
-        <v>-286451</v>
+        <v>-782652</v>
       </c>
       <c r="H14" s="11">
-        <v>-782652</v>
+        <v>-1332104</v>
       </c>
       <c r="I14" s="11">
-        <v>-1332104</v>
+        <v>-2088362</v>
       </c>
       <c r="J14" s="11">
-        <v>-2088362</v>
+        <v>-1055843</v>
       </c>
       <c r="K14" s="11">
-        <v>-1055843</v>
+        <v>-2754308</v>
       </c>
       <c r="L14" s="11">
-        <v>-2754308</v>
+        <v>-4476153</v>
       </c>
       <c r="M14" s="11">
-        <v>-4476153</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-9847885</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,259 +1003,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-238719</v>
+        <v>-136988</v>
       </c>
       <c r="E16" s="11">
-        <v>-136988</v>
+        <v>98273</v>
       </c>
       <c r="F16" s="11">
-        <v>98273</v>
+        <v>15565</v>
       </c>
       <c r="G16" s="11">
-        <v>15565</v>
+        <v>-77959</v>
       </c>
       <c r="H16" s="11">
-        <v>-77959</v>
+        <v>5896</v>
       </c>
       <c r="I16" s="11">
-        <v>5896</v>
+        <v>217344</v>
       </c>
       <c r="J16" s="11">
-        <v>217344</v>
+        <v>42415</v>
       </c>
       <c r="K16" s="11">
-        <v>42415</v>
+        <v>117966</v>
       </c>
       <c r="L16" s="11">
-        <v>117966</v>
+        <v>-357177</v>
       </c>
       <c r="M16" s="11">
-        <v>-357177</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>201919</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>1376298</v>
+        <v>2342525</v>
       </c>
       <c r="E17" s="15">
-        <v>2342525</v>
+        <v>4879610</v>
       </c>
       <c r="F17" s="15">
-        <v>4879610</v>
+        <v>666642</v>
       </c>
       <c r="G17" s="15">
-        <v>666642</v>
+        <v>3106166</v>
       </c>
       <c r="H17" s="15">
-        <v>3106166</v>
+        <v>7068660</v>
       </c>
       <c r="I17" s="15">
-        <v>7068660</v>
+        <v>12787641</v>
       </c>
       <c r="J17" s="15">
-        <v>12787641</v>
+        <v>2499734</v>
       </c>
       <c r="K17" s="15">
-        <v>2499734</v>
+        <v>8179646</v>
       </c>
       <c r="L17" s="15">
-        <v>8179646</v>
+        <v>14195221</v>
       </c>
       <c r="M17" s="15">
-        <v>14195221</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>26718212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-94322</v>
+        <v>-146736</v>
       </c>
       <c r="E18" s="11">
-        <v>-146736</v>
+        <v>-321760</v>
       </c>
       <c r="F18" s="11">
-        <v>-321760</v>
+        <v>-249848</v>
       </c>
       <c r="G18" s="11">
-        <v>-249848</v>
+        <v>-830551</v>
       </c>
       <c r="H18" s="11">
-        <v>-830551</v>
+        <v>-1252017</v>
       </c>
       <c r="I18" s="11">
-        <v>-1252017</v>
+        <v>-1953699</v>
       </c>
       <c r="J18" s="11">
-        <v>-1953699</v>
+        <v>-691689</v>
       </c>
       <c r="K18" s="11">
-        <v>-691689</v>
+        <v>-1785061</v>
       </c>
       <c r="L18" s="11">
-        <v>-1785061</v>
+        <v>-3460565</v>
       </c>
       <c r="M18" s="11">
-        <v>-3460565</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-5242657</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>194371</v>
+        <v>145233</v>
       </c>
       <c r="E19" s="13">
-        <v>145233</v>
+        <v>177309</v>
       </c>
       <c r="F19" s="13">
-        <v>177309</v>
+        <v>9222</v>
       </c>
       <c r="G19" s="13">
-        <v>9222</v>
+        <v>27755</v>
       </c>
       <c r="H19" s="13">
-        <v>27755</v>
+        <v>275523</v>
       </c>
       <c r="I19" s="13">
-        <v>275523</v>
+        <v>715341</v>
       </c>
       <c r="J19" s="13">
-        <v>715341</v>
+        <v>28561</v>
       </c>
       <c r="K19" s="13">
-        <v>28561</v>
+        <v>-219839</v>
       </c>
       <c r="L19" s="13">
-        <v>-219839</v>
+        <v>109507</v>
       </c>
       <c r="M19" s="13">
-        <v>109507</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>403406</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>1476347</v>
+        <v>2341022</v>
       </c>
       <c r="E20" s="17">
-        <v>2341022</v>
+        <v>4735159</v>
       </c>
       <c r="F20" s="17">
-        <v>4735159</v>
+        <v>426016</v>
       </c>
       <c r="G20" s="17">
-        <v>426016</v>
+        <v>2303370</v>
       </c>
       <c r="H20" s="17">
-        <v>2303370</v>
+        <v>6092166</v>
       </c>
       <c r="I20" s="17">
-        <v>6092166</v>
+        <v>11549283</v>
       </c>
       <c r="J20" s="17">
-        <v>11549283</v>
+        <v>1836606</v>
       </c>
       <c r="K20" s="17">
-        <v>1836606</v>
+        <v>6174746</v>
       </c>
       <c r="L20" s="17">
-        <v>6174746</v>
+        <v>10844163</v>
       </c>
       <c r="M20" s="17">
-        <v>10844163</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>21878961</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-302656</v>
+        <v>-536239</v>
       </c>
       <c r="E21" s="13">
-        <v>-536239</v>
+        <v>-598746</v>
       </c>
       <c r="F21" s="13">
-        <v>-598746</v>
+        <v>-101178</v>
       </c>
       <c r="G21" s="13">
-        <v>-101178</v>
+        <v>-518062</v>
       </c>
       <c r="H21" s="13">
-        <v>-518062</v>
+        <v>-1095064</v>
       </c>
       <c r="I21" s="13">
-        <v>-1095064</v>
+        <v>-1562392</v>
       </c>
       <c r="J21" s="13">
-        <v>-1562392</v>
+        <v>-436193</v>
       </c>
       <c r="K21" s="13">
-        <v>-436193</v>
+        <v>-1156445</v>
       </c>
       <c r="L21" s="13">
-        <v>-1156445</v>
+        <v>-2035039</v>
       </c>
       <c r="M21" s="13">
-        <v>-2035039</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-4312147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>1173691</v>
+        <v>1804783</v>
       </c>
       <c r="E22" s="17">
-        <v>1804783</v>
+        <v>4136413</v>
       </c>
       <c r="F22" s="17">
-        <v>4136413</v>
+        <v>324838</v>
       </c>
       <c r="G22" s="17">
-        <v>324838</v>
+        <v>1785308</v>
       </c>
       <c r="H22" s="17">
-        <v>1785308</v>
+        <v>4997102</v>
       </c>
       <c r="I22" s="17">
-        <v>4997102</v>
+        <v>9986891</v>
       </c>
       <c r="J22" s="17">
-        <v>9986891</v>
+        <v>1400413</v>
       </c>
       <c r="K22" s="17">
-        <v>1400413</v>
+        <v>5018301</v>
       </c>
       <c r="L22" s="17">
-        <v>5018301</v>
+        <v>8809124</v>
       </c>
       <c r="M22" s="17">
-        <v>8809124</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17566814</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>1173691</v>
+        <v>1804783</v>
       </c>
       <c r="E24" s="17">
-        <v>1804783</v>
+        <v>4136413</v>
       </c>
       <c r="F24" s="17">
-        <v>4136413</v>
+        <v>324838</v>
       </c>
       <c r="G24" s="17">
-        <v>324838</v>
+        <v>1785308</v>
       </c>
       <c r="H24" s="17">
-        <v>1785308</v>
+        <v>4997102</v>
       </c>
       <c r="I24" s="17">
-        <v>4997102</v>
+        <v>9986891</v>
       </c>
       <c r="J24" s="17">
-        <v>9986891</v>
+        <v>1400413</v>
       </c>
       <c r="K24" s="17">
-        <v>1400413</v>
+        <v>5018301</v>
       </c>
       <c r="L24" s="17">
-        <v>5018301</v>
+        <v>8809124</v>
       </c>
       <c r="M24" s="17">
-        <v>8809124</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17566814</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>1174</v>
+        <v>1805</v>
       </c>
       <c r="E25" s="13">
-        <v>1805</v>
+        <v>4136</v>
       </c>
       <c r="F25" s="13">
-        <v>4136</v>
+        <v>325</v>
       </c>
       <c r="G25" s="13">
-        <v>325</v>
+        <v>1785</v>
       </c>
       <c r="H25" s="13">
-        <v>1785</v>
+        <v>4997</v>
       </c>
       <c r="I25" s="13">
-        <v>4997</v>
+        <v>591</v>
       </c>
       <c r="J25" s="13">
-        <v>1248</v>
+        <v>175</v>
       </c>
       <c r="K25" s="13">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="L25" s="13">
-        <v>297</v>
+        <v>521</v>
       </c>
       <c r="M25" s="13">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1383,13 +1384,13 @@
         <v>1000000</v>
       </c>
       <c r="I26" s="11">
-        <v>1000000</v>
+        <v>16900000</v>
       </c>
       <c r="J26" s="11">
         <v>8000000</v>
       </c>
       <c r="K26" s="11">
-        <v>8000000</v>
+        <v>16900000</v>
       </c>
       <c r="L26" s="11">
         <v>16900000</v>
@@ -1398,43 +1399,43 @@
         <v>16900000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E27" s="13">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="F27" s="13">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="G27" s="13">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="H27" s="13">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="I27" s="13">
-        <v>296</v>
+        <v>591</v>
       </c>
       <c r="J27" s="13">
-        <v>591</v>
+        <v>83</v>
       </c>
       <c r="K27" s="13">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="L27" s="13">
-        <v>297</v>
+        <v>521</v>
       </c>
       <c r="M27" s="13">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
